--- a/matrices/synergy.xlsx
+++ b/matrices/synergy.xlsx
@@ -316,7 +316,7 @@
   <dimension ref="A1:AB28"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D4" activeCellId="0" pane="topLeft" sqref="D4"/>
+      <selection activeCell="F14" activeCellId="0" pane="topLeft" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -527,8 +527,12 @@
       <c r="C5" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -563,9 +567,15 @@
       <c r="C6" s="4" t="n">
         <v>-10</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="D6" s="4" t="n">
+        <v>-40</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -599,9 +609,15 @@
       <c r="C7" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="D7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -635,9 +651,15 @@
       <c r="C8" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
+      <c r="D8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="4"/>
       <c r="I8" s="1"/>
@@ -671,9 +693,15 @@
       <c r="C9" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="1"/>
+      <c r="D9" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>80</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="1"/>
       <c r="I9" s="4"/>
@@ -707,9 +735,15 @@
       <c r="C10" s="5" t="n">
         <v>-30</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="1"/>
+      <c r="D10" s="5" t="n">
+        <v>-30</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>-20</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -743,9 +777,15 @@
       <c r="C11" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="1"/>
+      <c r="D11" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="G11" s="5"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -779,9 +819,15 @@
       <c r="C12" s="4" t="n">
         <v>80</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="1"/>
+      <c r="D12" s="5" t="n">
+        <v>70</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>60</v>
+      </c>
       <c r="G12" s="5"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -815,9 +861,15 @@
       <c r="C13" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="D13" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>70</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -851,8 +903,12 @@
       <c r="C14" s="5" t="n">
         <v>70</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
+      <c r="D14" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>-20</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="5"/>
       <c r="H14" s="1"/>
@@ -887,8 +943,12 @@
       <c r="C15" s="5" t="n">
         <v>-40</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="D15" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>60</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="5"/>
       <c r="H15" s="1"/>
@@ -923,8 +983,12 @@
       <c r="C16" s="4" t="n">
         <v>-50</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="D16" s="4" t="n">
+        <v>-70</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>50</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="5"/>
       <c r="H16" s="1"/>
@@ -959,8 +1023,12 @@
       <c r="C17" s="5" t="n">
         <v>80</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
+      <c r="D17" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>10</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="5"/>
       <c r="H17" s="1"/>
@@ -995,8 +1063,12 @@
       <c r="C18" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="D18" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>10</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="5"/>
       <c r="H18" s="1"/>
@@ -1031,8 +1103,12 @@
       <c r="C19" s="4" t="n">
         <v>-30</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
+      <c r="D19" s="4" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>50</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="5"/>
       <c r="H19" s="1"/>
@@ -1067,8 +1143,12 @@
       <c r="C20" s="4" t="n">
         <v>-30</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="D20" s="4" t="n">
+        <v>-30</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>30</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="5"/>
       <c r="H20" s="1"/>
@@ -1103,8 +1183,12 @@
       <c r="C21" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="D21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>50</v>
+      </c>
       <c r="F21" s="7"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1139,8 +1223,12 @@
       <c r="C22" s="4" t="n">
         <v>-60</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="D22" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>40</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1175,8 +1263,12 @@
       <c r="C23" s="5" t="n">
         <v>-20</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="D23" s="4" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>20</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1211,8 +1303,12 @@
       <c r="C24" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="D24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>20</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1247,8 +1343,12 @@
       <c r="C25" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="D25" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>-30</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="4"/>
       <c r="H25" s="1"/>
@@ -1283,8 +1383,12 @@
       <c r="C26" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="D26" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>-10</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1319,8 +1423,12 @@
       <c r="C27" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="5"/>
+      <c r="D27" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>60</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>

--- a/matrices/synergy.xlsx
+++ b/matrices/synergy.xlsx
@@ -316,7 +316,7 @@
   <dimension ref="A1:AB28"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F14" activeCellId="0" pane="topLeft" sqref="F14"/>
+      <selection activeCell="X27" activeCellId="0" pane="topLeft" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -618,7 +618,9 @@
       <c r="F7" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -660,8 +662,12 @@
       <c r="F8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="4"/>
+      <c r="G8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -702,9 +708,15 @@
       <c r="F9" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="4"/>
+      <c r="G9" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -744,10 +756,18 @@
       <c r="F10" s="1" t="n">
         <v>-20</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="4"/>
+      <c r="G10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="3"/>
@@ -786,11 +806,21 @@
       <c r="F11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="4"/>
+      <c r="G11" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="3"/>
       <c r="N11" s="1"/>
@@ -828,12 +858,24 @@
       <c r="F12" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="4"/>
+      <c r="G12" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="L12" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="M12" s="3"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -870,13 +912,27 @@
       <c r="F13" s="3" t="n">
         <v>70</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="G13" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="J13" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="K13" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L13" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M13" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
@@ -909,15 +965,33 @@
       <c r="E14" s="4" t="n">
         <v>-20</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="4"/>
+      <c r="F14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="M14" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="N14" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -949,16 +1023,36 @@
       <c r="E15" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="4"/>
+      <c r="F15" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="M15" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="O15" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -989,17 +1083,39 @@
       <c r="E16" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="4"/>
+      <c r="F16" s="1" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>-30</v>
+      </c>
+      <c r="K16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="M16" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="O16" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P16" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -1029,18 +1145,42 @@
       <c r="E17" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="4"/>
+      <c r="F17" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="M17" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>-50</v>
+      </c>
+      <c r="O17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -1069,19 +1209,45 @@
       <c r="E18" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="4"/>
+      <c r="F18" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="M18" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O18" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="P18" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="1" t="n">
+        <v>-20</v>
+      </c>
+      <c r="R18" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -1109,20 +1275,48 @@
       <c r="E19" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="4"/>
+      <c r="F19" s="1" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>-10</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>-70</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="M19" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="O19" s="7" t="n">
+        <v>-20</v>
+      </c>
+      <c r="P19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="R19" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="S19" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="4"/>
@@ -1149,21 +1343,51 @@
       <c r="E20" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="4"/>
+      <c r="F20" s="1" t="n">
+        <v>-50</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>-30</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="M20" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1" t="n">
+        <v>-30</v>
+      </c>
+      <c r="Q20" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="R20" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="T20" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="U20" s="1"/>
       <c r="V20" s="5"/>
       <c r="W20" s="4"/>
@@ -1189,22 +1413,54 @@
       <c r="E21" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="4"/>
+      <c r="F21" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="M21" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="O21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="R21" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="S21" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="U21" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
@@ -1229,23 +1485,57 @@
       <c r="E22" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="4"/>
+      <c r="F22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="M22" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="O22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="R22" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="T22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="V22" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
@@ -1269,24 +1559,60 @@
       <c r="E23" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
+      <c r="F23" s="1" t="n">
+        <v>-99</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="J23" s="4" t="n">
+        <v>-20</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M23" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="O23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1" t="n">
+        <v>-50</v>
+      </c>
+      <c r="Q23" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="R23" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="S23" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" s="1" t="n">
+        <v>-70</v>
+      </c>
+      <c r="U23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
       <c r="Z23" s="1"/>
@@ -1309,25 +1635,63 @@
       <c r="E24" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
+      <c r="F24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>-99</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="L24" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M24" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="R24" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="S24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="Y24" s="4"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
@@ -1349,26 +1713,66 @@
       <c r="E25" s="4" t="n">
         <v>-30</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
+      <c r="F25" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G25" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="L25" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="M25" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="O25" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="P25" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q25" s="1" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R25" s="1" t="n">
+        <v>-20</v>
+      </c>
+      <c r="S25" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="T25" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="U25" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="V25" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="W25" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="X25" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y25" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="4"/>
       <c r="AB25" s="3"/>
@@ -1389,27 +1793,69 @@
       <c r="E26" s="4" t="n">
         <v>-10</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="1"/>
+      <c r="F26" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L26" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="M26" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="O26" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="P26" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="S26" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="T26" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="U26" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="V26" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="W26" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="X26" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y26" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z26" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="AA26" s="1"/>
       <c r="AB26" s="3"/>
     </row>
@@ -1429,28 +1875,72 @@
       <c r="E27" s="5" t="n">
         <v>60</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
+      <c r="F27" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>-50</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="L27" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="M27" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="O27" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="P27" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q27" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="R27" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="S27" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="T27" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="U27" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="V27" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="W27" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="X27" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y27" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z27" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA27" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="AB27" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="28"/>
